--- a/src/main/resources/excel/testdata.xlsx
+++ b/src/main/resources/excel/testdata.xlsx
@@ -38,18 +38,21 @@
     <t xml:space="preserve">To check whether the user can successfully login and logout </t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>newTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check whether this test is executed </t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>newTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To check whether this test is executed </t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>To check whether the amazon test is working or not</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>browser</t>
@@ -121,12 +121,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -149,54 +179,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,58 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -278,8 +242,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -288,6 +274,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,13 +295,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,169 +415,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +486,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,17 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,148 +589,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1149,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -1160,13 +1153,13 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1188,7 +1181,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1285,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -1311,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -1337,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -1360,10 +1353,10 @@
     </row>
     <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -1386,10 +1379,10 @@
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -1412,10 +1405,10 @@
     </row>
     <row r="9" ht="34.05" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>

--- a/src/main/resources/excel/testdata.xlsx
+++ b/src/main/resources/excel/testdata.xlsx
@@ -142,62 +142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +158,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -242,23 +226,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,26 +491,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,15 +509,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +533,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,7 +589,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,130 +607,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1159,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1278,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -1382,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>

--- a/src/main/resources/excel/testdata.xlsx
+++ b/src/main/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>testname</t>
   </si>
@@ -62,6 +62,12 @@
     <t>To check whether the amazon test is working or not</t>
   </si>
   <si>
+    <t>sikuliTest</t>
+  </si>
+  <si>
+    <t>To check User able to uplaod file using Skili images</t>
+  </si>
+  <si>
     <t>browser</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
   </si>
   <si>
     <t>Laptops</t>
+  </si>
+  <si>
+    <t>sikuli</t>
   </si>
 </sst>
 </file>
@@ -121,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -143,7 +152,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,47 +222,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,14 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -226,32 +252,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,28 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,61 +304,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +430,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,85 +472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,8 +500,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -509,6 +520,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,32 +568,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,7 +598,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,136 +613,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,7 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,13 +1093,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27.7809523809524" customWidth="1"/>
     <col min="2" max="2" width="101.219047619048" customWidth="1"/>
@@ -1159,12 +1167,29 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1178,10 +1203,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1203,22 +1228,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
@@ -1229,22 +1254,22 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:8">
@@ -1252,25 +1277,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:8">
@@ -1278,25 +1303,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
@@ -1307,22 +1332,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
@@ -1330,25 +1355,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:8">
@@ -1356,25 +1381,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
@@ -1382,25 +1407,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="34.05" customHeight="1" spans="1:8">
@@ -1408,25 +1433,51 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/testdata.xlsx
+++ b/src/main/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>testname</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">To check whether this test is executed </t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>2</t>
@@ -130,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -152,54 +149,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +232,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -252,15 +247,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,14 +272,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,13 +287,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +492,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,21 +532,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,148 +595,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1150,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -1161,13 +1158,13 @@
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1178,10 +1175,10 @@
     </row>
     <row r="5" ht="28.5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1205,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1228,22 +1225,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
@@ -1254,22 +1251,22 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:8">
@@ -1277,25 +1274,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:8">
@@ -1303,25 +1300,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
@@ -1329,25 +1326,25 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
@@ -1355,129 +1352,129 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="34.05" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
